--- a/Texts/Город Сокровищ/Город/Перекрёсток.xlsx
+++ b/Texts/Город Сокровищ/Город/Перекрёсток.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Раздел</t>
   </si>
@@ -130,6 +130,75 @@
   </si>
   <si>
     <t>[CN]- Ëàõå [CS:K]Òðéîäú[CR] -\n[CN]-Ãäå Òáúâàýóòÿ Îàäåçäú é Íåœóú-\n[CN]Âúéãñàêóå ðï Ëñôðîïíô!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P01A/enter04.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We don\'t have the time to\nwander off.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This is no time to be dawdling.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We can\'t take any detours.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have to do the guild\'s\nwork now.</t>
+  </si>
+  <si>
+    <t>456, 460, 464</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Bidoof[CR]\'s waiting at the guild.\nLet\'s move it!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Bidoof[CR]\'s waiting at the guild.\nLet\'s get going!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Bidoof[CR]\'s waiting at the guild.\nWe have to hurry!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> У нас нет времени на то,\nчтобы куда-то уходить.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сейчас не время\nбездельничать.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы сейчас не можем уходить.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам нужно выполнять\nгильдейское задание.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Бидуф[CR] ждёт нас в гильдии.\nПоспешим!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Бидуф[CR] ждёт нас в гильдии.\nИдём!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Бидуф[CR] ждёт нас в гильдии.\nНам нужно поспешить!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ô îàò îåó âñåíåîé îà óï,\nœóïáú ëôäà-óï ôöïäéóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òåêœàò îå âñåíÿ\náåèäåìûîéœàóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú òåêœàò îå íïçåí ôöïäéóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îôçîï âúðïìîÿóû\nãéìûäåêòëïå èàäàîéå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Áéäôõ[CR] çäæó îàò â ãéìûäéé.\nÐïòðåšéí!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Áéäôõ[CR] çäæó îàò â ãéìûäéé.\nÉäæí!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Áéäôõ[CR] çäæó îàò â ãéìûäéé.\nÎàí îôçîï ðïòðåšéóû!</t>
   </si>
 </sst>
 </file>
@@ -537,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,7 +618,7 @@
     <col min="2" max="2" width="8.109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="25.21875" style="5" customWidth="1"/>
     <col min="4" max="4" width="31.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="40.77734375" style="5" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
@@ -719,6 +788,107 @@
         <v>36</v>
       </c>
     </row>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="4">
+        <v>442</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>446</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>450</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>470</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <v>474</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>478</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Город/Перекрёсток.xlsx
+++ b/Texts/Город Сокровищ/Город/Перекрёсток.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Раздел</t>
   </si>
@@ -199,6 +199,129 @@
   </si>
   <si>
     <t xml:space="preserve"> [CS:N]Áéäôõ[CR] çäæó îàò â ãéìûäéé.\nÎàí îôçîï ðïòðåšéóû!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P01A/s30a0101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Huh? What\'s going on?</t>
+  </si>
+  <si>
+    <t>47, 51, 55</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There are stairs here!</t>
+  </si>
+  <si>
+    <t>88, 93, 97</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There\'s something written on\nthe sign…</t>
+  </si>
+  <si>
+    <t>117, 122, 126</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Huh? What?</t>
+  </si>
+  <si>
+    <t>143, 147, 151</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It says...[K]\"[CS:K]Spinda[CR]\'s Café! A Shop\nof Hopes and Dreams, Opening Soon! Win Big!\"</t>
+  </si>
+  <si>
+    <t>157, 161, 165</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Looks like a new shop will be\nopening soon.</t>
+  </si>
+  <si>
+    <t>180, 184, 188</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But \"Hopes and Dreams\"?\nI wonder what kind of shop it is…</t>
+  </si>
+  <si>
+    <t>195, 199, 203</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s come back after it\'s\nopen and check it out.</t>
+  </si>
+  <si>
+    <t>210, 214, 218</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что? Что это такое?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Здесь лестница!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> На табличке что-то\nнаписано...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А? Что?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Здесь написано: "Кафе\n[CS:K]Спинды[CR]! Где Сбываются Надежды и Мечты,\nСкоро Открытие! Выиграйте по Крупному!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Похоже, здесь скоро\nоткроется новое место.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но "Надежды и Мечты"?\nИнтересно, что здесь будет...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вернёмся позже после\nоткрытия и посмотрим, что тут будет.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï? Œóï üóï óàëïå?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èäåòû ìåòóîéøà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îà óàáìéœëå œóï-óï\nîàðéòàîï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À? Œóï?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èäåòû îàðéòàîï: "Ëàõå\n[CS:K]Òðéîäú[CR]! Ãäå Òáúâàýóòÿ Îàäåçäú é Íåœóú,\nÒëïñï Ïóëñúóéå! Âúéãñàêóå ðï Ëñôðîïíô!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïöïçå, èäåòû òëïñï\nïóëñïåóòÿ îïâïå íåòóï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âåñîæíòÿ ðïèçå ðïòìå\nïóëñúóéÿ é ðïòíïóñéí, œóï óôó áôäåó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï \"Îàäåçäú é Íåœóú\"?\nÉîóåñåòîï, œóï èäåòû áôäåó...</t>
+  </si>
+  <si>
+    <t>[CN]The door is still closed, so you can\'t get in.\n[CN]It seems like they\'re still getting ready.</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P01A/enter40.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s take [CS:N]Manaphy[CR] to the beach.</t>
+  </si>
+  <si>
+    <t>42, 46, 50</t>
+  </si>
+  <si>
+    <t>[CN]Проход всё ещё закрыт, пройти внутрь\n[CN]невозможно.\n[CN]Похоже, это место ещё не открылось.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Отведём [CS:N]Манафи[CR] на пляж.</t>
+  </si>
+  <si>
+    <t>[CN]Ðñïöïä âòæ åþæ èàëñúó, ðñïêóé âîôóñû\n[CN]îåâïèíïçîï.\n[CN]Ðïöïçå, üóï íåòóï åþæ îå ïóëñúìïòû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïóâåäæí [CS:N]Íàîàõé[CR] îà ðìÿç.</t>
   </si>
 </sst>
 </file>
@@ -606,16 +729,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="25.21875" style="5" customWidth="1"/>
     <col min="4" max="4" width="31.88671875" style="5" customWidth="1"/>
     <col min="5" max="5" width="40.77734375" style="5" customWidth="1"/>
@@ -861,7 +984,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>474</v>
       </c>
@@ -875,18 +998,166 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B18" s="4">
+    <row r="18" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6">
         <v>478</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="7" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="4">
+        <v>19</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Город/Перекрёсток.xlsx
+++ b/Texts/Город Сокровищ/Город/Перекрёсток.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
   <si>
     <t>Раздел</t>
   </si>
@@ -322,6 +322,42 @@
   </si>
   <si>
     <t xml:space="preserve"> Ïóâåäæí [CS:N]Íàîàõé[CR] îà ðìÿç.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If we dawdle now, they\'ll go\nwithout us on the expedition!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> When we\'re ready for the\nexpedition, we have to go back to the guild.</t>
+  </si>
+  <si>
+    <t>390, 394, 398</t>
+  </si>
+  <si>
+    <t>404, 408, 412</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have to let [CS:N]Chatot[CR] know\nwe\'re ready!</t>
+  </si>
+  <si>
+    <t>418, 422, 426</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если мы будем бездельничать,\nони не возьмут нас в экспедицию!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé íú áôäåí áåèäåìûîéœàóû,\nïîé îå âïèûíôó îàò â üëòðåäéøéý!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как только мы подготовимся\nк экспедиции, нам придется вернуться в\nгильдию.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë óïìûëï íú ðïäãïóïâéíòÿ\në üëòðåäéøéé, îàí ðñéäåóòÿ âåñîôóûòÿ â\nãéìûäéý.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам нужно сообщить [CS:N]Чатоту[CR]\nо нашей готовности!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îôçîï òïïáþéóû [CS:N]Œàóïóô[CR]\nï îàšåê ãïóïâîïòóé!</t>
   </si>
 </sst>
 </file>
@@ -729,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1147,17 +1183,63 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="7" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Город/Перекрёсток.xlsx
+++ b/Texts/Город Сокровищ/Город/Перекрёсток.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="223">
   <si>
     <t>Раздел</t>
   </si>
@@ -358,6 +358,336 @@
   </si>
   <si>
     <t xml:space="preserve"> Îàí îôçîï òïïáþéóû [CS:N]Œàóïóô[CR]\nï îàšåê ãïóïâîïòóé!</t>
+  </si>
+  <si>
+    <t>[CN]Caution![K]\n[CN]There is a restriction\n[CN]placed on [CS:P]Zero Isle North[CR].</t>
+  </si>
+  <si>
+    <t>[CN]In [CS:P]Zero Isle North[CR], you will\n[CN]not earn Exp. Points from the\n[CN]Pokémon you defeat. Is that OK?</t>
+  </si>
+  <si>
+    <t>[CN]Внимание![K]\n[CN]На [CS:P]Севере Нуль-Острова[CR]\n[CN]действует ограничение.</t>
+  </si>
+  <si>
+    <t>[CN]Находясь на [CS:P]Севере Нуль-Острова[CR],\n[CN]вы не будете получать Опыт\n[CN]с поверженных Покемонов. Продолжить?</t>
+  </si>
+  <si>
+    <t>[CN]Âîéíàîéå![K]\n[CN]Îà [CS:P]Òåâåñå Îôìû-Ïòóñïâà[CR]\n[CN]äåêòóâôåó ïãñàîéœåîéå.</t>
+  </si>
+  <si>
+    <t>[CN]Îàöïäÿòû îà [CS:P]Òåâåñå Îôìû-Ïòóñïâà[CR],\n[CN]âú îå áôäåóå ðïìôœàóû Ïðúó\n[CN]ò ðïâåñçåîîúö Ðïëåíïîïâ. Ðñïäïìçéóû?</t>
+  </si>
+  <si>
+    <t>[CN]Caution![K]\n[CN]There are certain restrictions\n[CN]on going to [CS:P]Zero Isle East[CR].</t>
+  </si>
+  <si>
+    <t>[CN]Items from the 17th slot and beyond\n[CN]in your Treasure Bag will be lost…</t>
+  </si>
+  <si>
+    <t>[CN]Also, all members\' levels will be temporarily\n[CN]reduced to Level 1. (They will be restored\n[CN]upon leaving the dungeon.) Is that OK?</t>
+  </si>
+  <si>
+    <t>[CN]Внимание![K]\n[CN]На [CS:P]Востоке Нуль-Острова[CR]\n[CN]действуют ограничения.</t>
+  </si>
+  <si>
+    <t>[CN]Все предметы, находящиеся в 17-м слоте\n[CN]Сумки для Ценностей и далее,\n[CN]будут утеряны...</t>
+  </si>
+  <si>
+    <t>[CN]Также, на время нахождения в подземелье,\n[CN]Уровень членов группы будет сброшен до 1.\n[CN]Продолжить?</t>
+  </si>
+  <si>
+    <t>[CN]Âîéíàîéå![K]\n[CN]Îà [CS:P]Âïòóïëå Îôìû-Ïòóñïâà[CR]\n[CN]äåêòóâôýó ïãñàîéœåîéÿ.</t>
+  </si>
+  <si>
+    <t>[CN]Âòå ðñåäíåóú, îàöïäÿþéåòÿ â 17-í òìïóå\n[CN]Òôíëé äìÿ Øåîîïòóåê é äàìåå,\n[CN]áôäôó ôóåñÿîú...</t>
+  </si>
+  <si>
+    <t>[CN]Óàëçå, îà âñåíÿ îàöïçäåîéÿ â ðïäèåíåìûå,\n[CN]Ôñïâåîû œìåîïâ ãñôððú áôäåó òáñïšåî äï 1.\n[CN]Ðñïäïìçéóû?</t>
+  </si>
+  <si>
+    <t>[CN]Caution![K]\n[CN]There are certain restrictions\n[CN]on going to [CS:P]Zero Isle West[CR].</t>
+  </si>
+  <si>
+    <t>[CN]Every item in your\n[CN]Treasure Bag will be lost…</t>
+  </si>
+  <si>
+    <t>[CN]Внимание![K]\n[CN]На [CS:P]Западе Нуль-Острова[CR]\n[CN]действуют ограничения.</t>
+  </si>
+  <si>
+    <t>[CN]Каждый предмет в вашей Сумке для Ценностей\n[CN]будет утерян...</t>
+  </si>
+  <si>
+    <t>[CN]Âîéíàîéå![K]\n[CN]Îà [CS:P]Èàðàäå Îôìû-Ïòóñïâà[CR]\n[CN]äåêòóâôýó ïãñàîéœåîéÿ.</t>
+  </si>
+  <si>
+    <t>[CN]Ëàçäúê ðñåäíåó â âàšåê Òôíëå äìÿ Øåîîïòóåê\n[CN]áôäåó ôóåñÿî...</t>
+  </si>
+  <si>
+    <t>[CN]Caution![K]\n[CN]There are certain restrictions\n[CN]on going to [CS:P]Zero Isle South[CR].</t>
+  </si>
+  <si>
+    <t>[CN]All the money and every item in\n[CN]your Treasure Bag will be lost…</t>
+  </si>
+  <si>
+    <t>[CN]Only the leader may enter…</t>
+  </si>
+  <si>
+    <t>[CN]Also, your level will be temporarily\n[CN]reduced to Level 1. (It will be restored\n[CN]upon leaving the dungeon.) Is that OK?</t>
+  </si>
+  <si>
+    <t>[CN]Внимание![K]\n[CN]На [CS:P]Юге Нуль-Острова[CR]\n[CN]действуют ограничения.</t>
+  </si>
+  <si>
+    <t>[CN]Все деньги и предметы в\n[CN]Сумке для Ценностей будут утеряны.</t>
+  </si>
+  <si>
+    <t>[CN]Только лидер может войти в подземелье...</t>
+  </si>
+  <si>
+    <t>[CN]Также, на время нахождения в подземелье,\n[CN]Ваш будет сброшен до 1.\n[CN]Продолжить?</t>
+  </si>
+  <si>
+    <t>[CN]Âîéíàîéå![K]\n[CN]Îà [CS:P]Ýãå Îôìû-Ïòóñïâà[CR]\n[CN]äåêòóâôýó ïãñàîéœåîéÿ.</t>
+  </si>
+  <si>
+    <t>[CN]Âòå äåîûãé é ðñåäíåóú â\n[CN]Òôíëå äìÿ Øåîîïòóåê áôäôó ôóåñÿîú.</t>
+  </si>
+  <si>
+    <t>[CN]Óïìûëï ìéäåñ íïçåó âïêóé â ðïäèåíåìûå...</t>
+  </si>
+  <si>
+    <t>[CN]Óàëçå, îà âñåíÿ îàöïçäåîéÿ â ðïäèåíåìûå,\n[CN]Âàš áôäåó òáñïšåî äï 1.\n[CN]Ðñïäïìçéóû?</t>
+  </si>
+  <si>
+    <t>[CN]Caution![K]\n[CN]There are certain restrictions\n[CN]on going to [CS:P]Zero Isle Center[CR].</t>
+  </si>
+  <si>
+    <t>[CN]You will not earn Experience Points from the\n[CN]Pokémon you defeat.</t>
+  </si>
+  <si>
+    <t>[CN]Any hidden traps that you trigger (even those\n[CN]that don\'t hit you) will remain invisible.</t>
+  </si>
+  <si>
+    <t>[CN]Also, you cannot be rescued.\n[CN]Is that OK?</t>
+  </si>
+  <si>
+    <t>[CN]Внимание![K]\n[CN]В [CS:P]Центре Нуль-Острова[CR]\n[CN]действуют ограничения.</t>
+  </si>
+  <si>
+    <t>[CN]Вы не будете получать Опыт\n[CN]с поверженных Покемонов.</t>
+  </si>
+  <si>
+    <t>[CN]Любые ловушки, которые будут активированы\n[CN]вами, (даже те, что не наносят урон)\n[CN]останутся скрытыми.</t>
+  </si>
+  <si>
+    <t>[CN]Кроме того, вас будет невозможно спасти.\n[CN]Продолжить?</t>
+  </si>
+  <si>
+    <t>[CN]Âîéíàîéå![K]\n[CN]Â [CS:P]Øåîóñå Îôìû-Ïòóñïâà[CR]\n[CN]äåêòóâôýó ïãñàîéœåîéÿ.</t>
+  </si>
+  <si>
+    <t>[CN]Âú îå áôäåóå ðïìôœàóû Ïðúó\n[CN]ò ðïâåñçåîîúö Ðïëåíïîïâ.</t>
+  </si>
+  <si>
+    <t>[CN]Ìýáúå ìïâôšëé, ëïóïñúå áôäôó àëóéâéñïâàîú\n[CN]âàíé, (äàçå óå, œóï îå îàîïòÿó ôñïî)\n[CN]ïòóàîôóòÿ òëñúóúíé.</t>
+  </si>
+  <si>
+    <t>[CN]Ëñïíå óïãï, âàò áôäåó îåâïèíïçîï òðàòóé.\n[CN]Ðñïäïìçéóû?</t>
+  </si>
+  <si>
+    <t>[CN]Caution![K]\n[CN]There are certain restrictions\n[CN]on going to [CS:P]Destiny Tower[CR].</t>
+  </si>
+  <si>
+    <t>[CN]Only the leader may enter...</t>
+  </si>
+  <si>
+    <t>[CN]Also, your level will be temporarily\n[CN]reduced to Level 1. (It will be restored\n[CN]upon leaving the dungeon.)</t>
+  </si>
+  <si>
+    <t>[CN]All IQ Skills will be unusable…</t>
+  </si>
+  <si>
+    <t>[CN]Внимание![K]\n[CN]В [CS:P]Башне Судьбы[CR]\n[CN]действуют ограничения.</t>
+  </si>
+  <si>
+    <t>[CN]Также, на время нахождения в подземелье,\n[CN]Ваш будет сброшен до 1.</t>
+  </si>
+  <si>
+    <t>[CN]Все Навыки IQ будут отключены...</t>
+  </si>
+  <si>
+    <t>[CN]Âîéíàîéå![K]\n[CN]Â [CS:P]Áàšîå Òôäûáú[CR]\n[CN]äåêòóâôýó ïãñàîéœåîéÿ.</t>
+  </si>
+  <si>
+    <t>[CN]Óàëçå, îà âñåíÿ îàöïçäåîéÿ â ðïäèåíåìûå,\n[CN]Âàš áôäåó òáñïšåî äï 1.</t>
+  </si>
+  <si>
+    <t>[CN]Âòå Îàâúëé IQ áôäôó ïóëìýœåîú...</t>
+  </si>
+  <si>
+    <t>[CN]Caution![K]\n[CN]There are certain restrictions\n[CN]on going to [CS:P]Oblivion Forest[CR].</t>
+  </si>
+  <si>
+    <t>[CN]All of your money and items from the 9th slot\n[CN]and beyond in your Treasure Bag will be lost…</t>
+  </si>
+  <si>
+    <t>[CN]Any team members in the 3rd position and\n[CN]beyond will return to Treasure Town.</t>
+  </si>
+  <si>
+    <t>[CN]Внимание![K]\n[CN]В [CS:P]Лесу Забвения[CR]\n[CN]действуют ограничения.</t>
+  </si>
+  <si>
+    <t>[CN]Любые члены группы на 3-й позиции и далее\n[CN]вернутся в Город Сокровищ.</t>
+  </si>
+  <si>
+    <t>[CN]Âîéíàîéå![K]\n[CN]Â [CS:P]Ìåòô Èàáâåîéÿ[CR]\n[CN]äåêòóâôýó ïãñàîéœåîéÿ.</t>
+  </si>
+  <si>
+    <t>[CN]Ìýáúå œìåîú ãñôððú îà 3-ê ðïèéøéé é äàìåå\n[CN]âåñîôóòÿ â Ãïñïä Òïëñïâéþ.</t>
+  </si>
+  <si>
+    <t>[CN]Caution![K]\n[CN]There are certain restrictions\n[CN]on going to the [CS:P]Treacherous Waters[CR].</t>
+  </si>
+  <si>
+    <t>[CN]Все деньги и предметы, находящиеся в\n[CN]9-м слоте Сумки для Ценностей и далее,\n[CN]будут утеряны...</t>
+  </si>
+  <si>
+    <t>[CN]Âòå äåîûãé é ðñåäíåóú, îàöïäÿþéåòÿ â\n[CN]9-í òìïóå Òôíëé äìÿ Øåîîïòóåê é äàìåå,\n[CN]áôäôó ôóåñÿîú...</t>
+  </si>
+  <si>
+    <t>[CN]Внимание![K]\n[CN]В [CS:P]Коварных Водах[CR]\n[CN]действуют ограничения.</t>
+  </si>
+  <si>
+    <t>[CN]Âîéíàîéå![K]\n[CN]Â [CS:P]Ëïâàñîúö Âïäàö[CR]\n[CN]äåêòóâôýó ïãñàîéœåîéÿ.</t>
+  </si>
+  <si>
+    <t>[CN]Caution![K]\n[CN]There are certain restrictions\n[CN]on going to the [CS:P]Southeastern Islands[CR].</t>
+  </si>
+  <si>
+    <t>[CN]Внимание![K]\n[CN]На [CS:P]Юго-Восточных Островах[CR]\n[CN]действуют ограничения.</t>
+  </si>
+  <si>
+    <t>[CN]Âîéíàîéå![K]\n[CN]Îà [CS:P]Ýãï-Âïòóïœîúö Ïòóñïâàö[CR]\n[CN]äåêòóâôýó ïãñàîéœåîéÿ.</t>
+  </si>
+  <si>
+    <t>[CN]Caution![K]\n[CN]There are certain restrictions\n[CN]on going to [CS:P]Inferno Cave[CR].</t>
+  </si>
+  <si>
+    <t>[CN]Внимание![K]\n[CN]В [CS:P]Инфернальной Пещере[CR]\n[CN]действуют ограничения.</t>
+  </si>
+  <si>
+    <t>[CN]Âîéíàîéå![K]\n[CN]Â [CS:P]Éîõåñîàìûîïê Ðåþåñå[CR]\n[CN]äåêòóâôýó ïãñàîéœåîéÿ.</t>
+  </si>
+  <si>
+    <t>[CN]Caution![K]\n[CN]You cannot be rescued in [CS:P]Star Cave[CR].\n[CN]Is that OK?</t>
+  </si>
+  <si>
+    <t>[CN]Внимание!\n[CN]В [CS:P]Пещере Звёзд[CR] вас невозможно спасти.\n[CN]Продолжить?</t>
+  </si>
+  <si>
+    <t>[CN]Âîéíàîéå!\n[CN]Â [CS:P]Ðåþåñå Èâæèä[CR] âàò îåâïèíïçîï òðàòóé.\n[CN]Ðñïäïìçéóû?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have to get ready first,\n[hero].</t>
+  </si>
+  <si>
+    <t>298, 302, 306</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s go to Treasure Town.</t>
+  </si>
+  <si>
+    <t>312, 316, 320</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сперва нам нужно\nподготовиться, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Идём в Город Сокровищ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òðåñâà îàí îôçîï\nðïäãïóïâéóûòÿ, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éäæí â Ãïñïä Òïëñïâéþ.</t>
+  </si>
+  <si>
+    <t>338, 342, 346</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No, we can\'t, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have to get ready for\ncapturing [CS:N]Grovyle[CR], right?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s go back to the guild as\nsoon as we\'re ready.</t>
+  </si>
+  <si>
+    <t>366, 370, 374</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re supposed to get ready for\ncapturing [CS:N]Grovyle[CR] first, right?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aren\'t we supposed to get ready\nfor capturing [CS:N]Grovyle[CR] first?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нет, мы не можем туда идти,\n[hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îåó, íú îå íïçåí óôäà éäóé,\n[hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам нужно подготовиться к\nпоимке [CS:N]Гровайла[CR], так?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îôçîï ðïäãïóïâéóûòÿ ë\nðïéíëå [CS:N]Ãñïâàêìà[CR], óàë?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сперва нам нужно\nподготовиться к поимке [CS:N]Гровайла[CR], так?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òðåñâà îàí îôçîï\nðïäãïóïâéóûòÿ ë ðïéíëå [CS:N]Ãñïâàêìà[CR], óàë?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Разве мы не должны сперва\nподготовиться к поимке [CS:N]Гровайла[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ñàèâå íú îå äïìçîú òðåñâà\nðïäãïóïâéóûòÿ ë ðïéíëå [CS:N]Ãñïâàêìà[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как только мы будем готовы,\nнужно вернуться в гильдию.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë óïìûëï íú áôäåí ãïóïâú,\nîôçîï âåñîôóûòÿ â ãéìûäéý.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have to get ready for\nexploration first, [hero].</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P01A/enter02.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have to go by Treasure\nTown.</t>
+  </si>
+  <si>
+    <t>40, 44, 48</t>
+  </si>
+  <si>
+    <t>54, 58, 62</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сперва нам нужно\nподготовиться к вылазке, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Пойдём в Город Сокровищ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òðåñâà îàí îôçîï\nðïäãïóïâéóûòÿ ë âúìàèëå, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïêäæí â Ãïñïä Òïëñïâéþ.</t>
   </si>
 </sst>
 </file>
@@ -407,7 +737,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -455,11 +785,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -483,6 +824,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -765,10 +1112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="C76" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1229,17 +1576,749 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="7" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="4">
+        <v>80</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="B33" s="4">
+        <v>83</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>88</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="6">
+        <v>92</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="4">
+        <v>101</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="4">
+        <v>104</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="B38" s="6">
+        <v>107</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="B39" s="4">
+        <v>112</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B40" s="4">
+        <v>115</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="B41" s="6">
+        <v>118</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="B42" s="4">
+        <v>123</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="B43" s="4">
+        <v>126</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="4">
+        <v>129</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="B45" s="6">
+        <v>132</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="4">
+        <v>137</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="4">
+        <v>140</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B48" s="4">
+        <v>143</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="B49" s="4">
+        <v>146</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B50" s="6">
+        <v>149</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="B51" s="4">
+        <v>154</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="4">
+        <v>157</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="4">
+        <v>160</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="B54" s="4">
+        <v>163</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55" s="4">
+        <v>166</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="4">
+        <v>169</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B57" s="6">
+        <v>172</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="B58" s="4">
+        <v>177</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="B59" s="4">
+        <v>180</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="B60" s="4">
+        <v>183</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B61" s="6">
+        <v>186</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="B62" s="4">
+        <v>191</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="B63" s="4">
+        <v>194</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="B64" s="4">
+        <v>197</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B65" s="6">
+        <v>200</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="4">
+        <v>205</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="4">
+        <v>208</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68" s="4">
+        <v>211</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B69" s="6">
+        <v>214</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="B70" s="4">
+        <v>219</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="B71" s="4">
+        <v>222</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B72" s="4">
+        <v>225</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B73" s="6">
+        <v>228</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="B74" s="9">
+        <v>233</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B75" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B76" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B77" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B78" s="4">
+        <v>352</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="4">
+        <v>356</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B80" s="4">
+        <v>360</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B83" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Город/Перекрёсток.xlsx
+++ b/Texts/Город Сокровищ/Город/Перекрёсток.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="228">
   <si>
     <t>Раздел</t>
   </si>
@@ -444,9 +444,6 @@
     <t>[CN]Только лидер может войти в подземелье...</t>
   </si>
   <si>
-    <t>[CN]Также, на время нахождения в подземелье,\n[CN]Ваш будет сброшен до 1.\n[CN]Продолжить?</t>
-  </si>
-  <si>
     <t>[CN]Âîéíàîéå![K]\n[CN]Îà [CS:P]Ýãå Îôìû-Ïòóñïâà[CR]\n[CN]äåêòóâôýó ïãñàîéœåîéÿ.</t>
   </si>
   <si>
@@ -456,9 +453,6 @@
     <t>[CN]Óïìûëï ìéäåñ íïçåó âïêóé â ðïäèåíåìûå...</t>
   </si>
   <si>
-    <t>[CN]Óàëçå, îà âñåíÿ îàöïçäåîéÿ â ðïäèåíåìûå,\n[CN]Âàš áôäåó òáñïšåî äï 1.\n[CN]Ðñïäïìçéóû?</t>
-  </si>
-  <si>
     <t>[CN]Caution![K]\n[CN]There are certain restrictions\n[CN]on going to [CS:P]Zero Isle Center[CR].</t>
   </si>
   <si>
@@ -510,18 +504,12 @@
     <t>[CN]Внимание![K]\n[CN]В [CS:P]Башне Судьбы[CR]\n[CN]действуют ограничения.</t>
   </si>
   <si>
-    <t>[CN]Также, на время нахождения в подземелье,\n[CN]Ваш будет сброшен до 1.</t>
-  </si>
-  <si>
     <t>[CN]Все Навыки IQ будут отключены...</t>
   </si>
   <si>
     <t>[CN]Âîéíàîéå![K]\n[CN]Â [CS:P]Áàšîå Òôäûáú[CR]\n[CN]äåêòóâôýó ïãñàîéœåîéÿ.</t>
   </si>
   <si>
-    <t>[CN]Óàëçå, îà âñåíÿ îàöïçäåîéÿ â ðïäèåíåìûå,\n[CN]Âàš áôäåó òáñïšåî äï 1.</t>
-  </si>
-  <si>
     <t>[CN]Âòå Îàâúëé IQ áôäôó ïóëìýœåîú...</t>
   </si>
   <si>
@@ -688,13 +676,40 @@
   </si>
   <si>
     <t xml:space="preserve"> Ðïêäæí â Ãïñïä Òïëñïâéþ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The beach isn\'t that way,\n[hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero], пляж не в той\nстороне.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero], ðìÿç îå â óïê\nòóïñïîå.</t>
+  </si>
+  <si>
+    <t>21, 25, 29</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P01A/s03p0801.ssb</t>
+  </si>
+  <si>
+    <t>[CN]Также, на время нахождения в подземелье,\n[CN]Ваш Уровень будет сброшен до 1.\n[CN]Продолжить?</t>
+  </si>
+  <si>
+    <t>[CN]Óàëçå, îà âñåíÿ îàöïçäåîéÿ â ðïäèåíåìûå,\n[CN]Âàš Ôñïâåîû áôäåó òáñïšåî äï 1.\n[CN]Ðñïäïìçéóû?</t>
+  </si>
+  <si>
+    <t>[CN]Также, на время нахождения в подземелье,\n[CN]Ваш Уровень будет сброшен до 1.</t>
+  </si>
+  <si>
+    <t>[CN]Óàëçå, îà âñåíÿ îàöïçäåîéÿ â ðïäèåíåìûå,\n[CN]Âàš Ôñïâåîû áôäåó òáñïšåî äï 1.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,6 +741,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -800,7 +829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -830,6 +859,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1112,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C76" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1740,7 +1781,7 @@
         <v>138</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1754,7 +1795,7 @@
         <v>139</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
@@ -1768,21 +1809,21 @@
         <v>140</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="B45" s="6">
+      <c r="B45" s="12">
         <v>132</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>137</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>141</v>
+        <v>224</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1790,13 +1831,13 @@
         <v>137</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1818,13 +1859,13 @@
         <v>143</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1832,13 +1873,13 @@
         <v>146</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -1846,13 +1887,13 @@
         <v>149</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1860,13 +1901,13 @@
         <v>154</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D51" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1880,7 +1921,7 @@
         <v>139</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
@@ -1888,27 +1929,27 @@
         <v>160</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>140</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="B54" s="4">
+      <c r="B54" s="13">
         <v>163</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
@@ -1916,13 +1957,13 @@
         <v>166</v>
       </c>
       <c r="C55" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="E55" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1930,13 +1971,13 @@
         <v>169</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -1944,13 +1985,13 @@
         <v>172</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1958,13 +1999,13 @@
         <v>177</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1972,13 +2013,13 @@
         <v>180</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1986,13 +2027,13 @@
         <v>183</v>
       </c>
       <c r="C60" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2000,13 +2041,13 @@
         <v>186</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -2014,13 +2055,13 @@
         <v>191</v>
       </c>
       <c r="C62" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -2028,13 +2069,13 @@
         <v>194</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -2042,13 +2083,13 @@
         <v>197</v>
       </c>
       <c r="C64" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2056,13 +2097,13 @@
         <v>200</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -2070,13 +2111,13 @@
         <v>205</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -2084,13 +2125,13 @@
         <v>208</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
@@ -2104,7 +2145,7 @@
         <v>140</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2112,13 +2153,13 @@
         <v>214</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -2126,13 +2167,13 @@
         <v>219</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -2140,13 +2181,13 @@
         <v>222</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
@@ -2160,7 +2201,7 @@
         <v>140</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2168,13 +2209,13 @@
         <v>228</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -2182,55 +2223,55 @@
         <v>233</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B75" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C75" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>193</v>
-      </c>
       <c r="E75" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B76" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E76" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B77" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2238,13 +2279,13 @@
         <v>352</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79" spans="2:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -2252,13 +2293,13 @@
         <v>356</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80" spans="2:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2266,59 +2307,77 @@
         <v>360</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="6"/>
       <c r="B81" s="6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D82" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="E82" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C82" s="5" t="s">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="C83" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="D84" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E84" s="11" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B83" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>222</v>
       </c>
     </row>
   </sheetData>
